--- a/Projects/CCIT/Data/KPI_Templates.xlsx
+++ b/Projects/CCIT/Data/KPI_Templates.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Shared\Implementation\Projects database\EUROPE\CCIT\KPI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\it004301\Documents\COOLER MERCHANDISING PROJECT\TRAX\FILE DA PASSARE A TRAX\INVIO\17AGOSTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5AE4E70-D7BE-4E6C-B768-EA8A4C49583B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="898"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" tabRatio="805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SKU_Points" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SKU_Points!$A$1:$N$104</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="143">
   <si>
     <t>SKU Name</t>
   </si>
@@ -191,9 +192,6 @@
     <t xml:space="preserve">1.5L PET LILIA IT    </t>
   </si>
   <si>
-    <t xml:space="preserve">1.0L PET LILIA IT    </t>
-  </si>
-  <si>
     <t xml:space="preserve">1.0L PET KINLEY TONIC WATER IT  </t>
   </si>
   <si>
@@ -450,12 +448,24 @@
   </si>
   <si>
     <t>Score multiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0L PET LILIA NAT IT    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0L PET LILIA FRIZZ IT    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0L PET LILIA NAT IT   HORECA </t>
+  </si>
+  <si>
+    <t>1.0L PET LILIA FRIZZ IT    HORECA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -465,12 +475,24 @@
       <charset val="177"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -485,10 +507,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -804,29 +831,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B92" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+      <selection pane="bottomRight" activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="54.25"/>
     <col min="2" max="2" width="12.375"/>
-    <col min="3" max="3" width="20.25"/>
-    <col min="4" max="4" width="24"/>
-    <col min="5" max="5" width="22.875"/>
-    <col min="6" max="6" width="26.25"/>
-    <col min="7" max="7" width="35.25"/>
-    <col min="8" max="8" width="38.5"/>
-    <col min="9" max="9" width="19.375"/>
-    <col min="10" max="10" width="22.75"/>
-    <col min="11" max="11" width="28"/>
-    <col min="12" max="12" width="31.375"/>
-    <col min="13" max="13" width="18.5"/>
-    <col min="14" max="14" width="21.625"/>
+    <col min="3" max="3" width="7.875" customWidth="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="13" width="7.875" customWidth="1"/>
+    <col min="14" max="14" width="10.375" customWidth="1"/>
     <col min="15" max="1025" width="10.375"/>
   </cols>
   <sheetData>
@@ -2459,8 +2481,8 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>53</v>
+      <c r="A38" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="B38" s="2">
         <v>1027701</v>
@@ -2504,7 +2526,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B39" s="2">
         <v>270901</v>
@@ -2548,7 +2570,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B40" s="2">
         <v>1374901</v>
@@ -2592,7 +2614,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B41" s="2">
         <v>1339401</v>
@@ -2636,7 +2658,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B42" s="2">
         <v>1600701</v>
@@ -2680,7 +2702,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B43" s="2">
         <v>74804</v>
@@ -2724,7 +2746,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B44" s="2">
         <v>1355101</v>
@@ -2768,7 +2790,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B45" s="2">
         <v>1749101</v>
@@ -2812,7 +2834,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B46" s="2">
         <v>1749001</v>
@@ -2856,7 +2878,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B47" s="2">
         <v>1783101</v>
@@ -2900,7 +2922,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B48" s="2">
         <v>1747903</v>
@@ -2944,7 +2966,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49" s="2">
         <v>1748901</v>
@@ -2988,7 +3010,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B50" s="2">
         <v>1745101</v>
@@ -3032,7 +3054,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B51" s="2">
         <v>1745301</v>
@@ -3076,7 +3098,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B52" s="2">
         <v>1536801</v>
@@ -3120,7 +3142,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B53" s="2">
         <v>1600801</v>
@@ -3164,7 +3186,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B54" s="2">
         <v>1027101</v>
@@ -3208,7 +3230,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B55" s="2">
         <v>25405</v>
@@ -3252,7 +3274,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B56" s="2">
         <v>1546901</v>
@@ -3296,7 +3318,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B57" s="2">
         <v>620413</v>
@@ -3340,7 +3362,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B58" s="2">
         <v>592421</v>
@@ -3384,7 +3406,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B59" s="2">
         <v>1417705</v>
@@ -3428,7 +3450,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B60" s="2">
         <v>280604</v>
@@ -3472,7 +3494,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B61" s="2">
         <v>956510</v>
@@ -3516,7 +3538,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B62" s="2">
         <v>17204</v>
@@ -3560,7 +3582,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B63" s="2">
         <v>1544102</v>
@@ -3604,7 +3626,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B64" s="2">
         <v>478708</v>
@@ -3648,7 +3670,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B65" s="2">
         <v>225004</v>
@@ -3692,7 +3714,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B66" s="2">
         <v>1700201</v>
@@ -3736,7 +3758,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B67" s="2">
         <v>1589201</v>
@@ -3780,7 +3802,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B68" s="2">
         <v>298129</v>
@@ -3824,7 +3846,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B69" s="2">
         <v>1622601</v>
@@ -3868,7 +3890,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B70" s="2">
         <v>511903</v>
@@ -3912,7 +3934,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B71" s="2">
         <v>1781701</v>
@@ -3956,7 +3978,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B72" s="2">
         <v>611806</v>
@@ -4000,7 +4022,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B73" s="2">
         <v>1757801</v>
@@ -4044,7 +4066,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B74" s="2">
         <v>1755201</v>
@@ -4088,7 +4110,7 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B75" s="2">
         <v>1759701</v>
@@ -4132,7 +4154,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B76" s="2">
         <v>1537003</v>
@@ -4176,7 +4198,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B77" s="2">
         <v>14719</v>
@@ -4220,7 +4242,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B78" s="2">
         <v>592334</v>
@@ -4264,7 +4286,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B79" s="2">
         <v>1016003</v>
@@ -4308,7 +4330,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B80" s="2">
         <v>1001001</v>
@@ -4352,7 +4374,7 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B81" s="2">
         <v>175749</v>
@@ -4396,7 +4418,7 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B82" s="2">
         <v>1031002</v>
@@ -4440,7 +4462,7 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B83" s="2">
         <v>25209</v>
@@ -4484,7 +4506,7 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B84" s="2">
         <v>1084001</v>
@@ -4528,7 +4550,7 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B85" s="2">
         <v>1755501</v>
@@ -4572,7 +4594,7 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B86" s="2">
         <v>409006</v>
@@ -4616,7 +4638,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B87" s="2">
         <v>14605</v>
@@ -4660,7 +4682,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B88" s="2">
         <v>230301</v>
@@ -4704,7 +4726,7 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B89" s="2">
         <v>1752501</v>
@@ -4748,7 +4770,7 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B90" s="2">
         <v>87576</v>
@@ -4792,7 +4814,7 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B91" s="2">
         <v>1360004</v>
@@ -4836,7 +4858,7 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B92" s="2">
         <v>1612704</v>
@@ -4880,7 +4902,7 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B93" s="2">
         <v>1085801</v>
@@ -4924,7 +4946,7 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B94" s="2">
         <v>1027001</v>
@@ -4968,7 +4990,7 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B95" s="2">
         <v>1085901</v>
@@ -5012,7 +5034,7 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B96" s="2">
         <v>1098101</v>
@@ -5056,7 +5078,7 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B97" s="2">
         <v>1085401</v>
@@ -5100,7 +5122,7 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B98" s="2">
         <v>1085101</v>
@@ -5144,7 +5166,7 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B99" s="2">
         <v>1085701</v>
@@ -5188,7 +5210,7 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B100" s="2">
         <v>1085001</v>
@@ -5232,7 +5254,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B101" s="2">
         <v>1085501</v>
@@ -5276,7 +5298,7 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B102" s="2">
         <v>1085301</v>
@@ -5320,7 +5342,7 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B103" s="2">
         <v>1111902</v>
@@ -5364,7 +5386,7 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B104" s="2">
         <v>1396201</v>
@@ -5406,18 +5428,194 @@
         <v>15</v>
       </c>
     </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B105" s="5">
+        <v>1027901</v>
+      </c>
+      <c r="C105" s="3">
+        <v>0</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105" s="3">
+        <v>0</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G105" s="3">
+        <v>0</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I105" s="3">
+        <v>0</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K105" s="3">
+        <v>12</v>
+      </c>
+      <c r="L105" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M105" s="3">
+        <v>0</v>
+      </c>
+      <c r="N105" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B106" s="5">
+        <v>1098402</v>
+      </c>
+      <c r="C106">
+        <v>3</v>
+      </c>
+      <c r="D106" t="s">
+        <v>17</v>
+      </c>
+      <c r="E106">
+        <v>6</v>
+      </c>
+      <c r="F106" t="s">
+        <v>17</v>
+      </c>
+      <c r="G106">
+        <v>3</v>
+      </c>
+      <c r="H106" t="s">
+        <v>17</v>
+      </c>
+      <c r="I106">
+        <v>3</v>
+      </c>
+      <c r="J106" t="s">
+        <v>17</v>
+      </c>
+      <c r="K106">
+        <v>6</v>
+      </c>
+      <c r="L106" t="s">
+        <v>17</v>
+      </c>
+      <c r="M106">
+        <v>3</v>
+      </c>
+      <c r="N106" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B107" s="5">
+        <v>1027702</v>
+      </c>
+      <c r="C107" s="3">
+        <v>0</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" s="3">
+        <v>0</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G107" s="3">
+        <v>0</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I107" s="3">
+        <v>0</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K107" s="3">
+        <v>12</v>
+      </c>
+      <c r="L107" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M107" s="3">
+        <v>0</v>
+      </c>
+      <c r="N107" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B108" s="5">
+        <v>1097902</v>
+      </c>
+      <c r="C108" s="3">
+        <v>0</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" s="3">
+        <v>0</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G108" s="3">
+        <v>0</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I108" s="3">
+        <v>0</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K108" s="3">
+        <v>12</v>
+      </c>
+      <c r="L108" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M108" s="3">
+        <v>0</v>
+      </c>
+      <c r="N108" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N104"/>
+  <autoFilter ref="A1:N104" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -5435,30 +5633,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
         <v>120</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>121</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>122</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>123</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>124</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>125</v>
-      </c>
-      <c r="G1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -5481,7 +5679,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -5504,7 +5702,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4" s="1">
         <v>12</v>
@@ -5527,7 +5725,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5">
         <v>18</v>
@@ -5550,7 +5748,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6">
         <v>12</v>
@@ -5573,7 +5771,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B7" s="1">
         <v>18</v>
@@ -5601,7 +5799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -5615,10 +5813,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" t="s">
         <v>133</v>
-      </c>
-      <c r="B1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -5640,7 +5838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5655,15 +5853,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -5671,7 +5869,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5679,7 +5877,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4">
         <v>1.5</v>

--- a/Projects/CCIT/Data/KPI_Templates.xlsx
+++ b/Projects/CCIT/Data/KPI_Templates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\it004301\Documents\COOLER MERCHANDISING PROJECT\TRAX\FILE DA PASSARE A TRAX\INVIO\17AGOSTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Shared\Implementation\Projects database\EUROPE\CCIT\KPI\KPI Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5AE4E70-D7BE-4E6C-B768-EA8A4C49583B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8805837-8114-454E-83CC-3E61AB8A3658}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" tabRatio="805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SKU_Points" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Multiplier" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SKU_Points!$A$1:$N$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SKU_Points!$A$1:$N$113</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="149">
   <si>
     <t>SKU Name</t>
   </si>
@@ -183,9 +183,6 @@
     <t xml:space="preserve">500ml CAN MONSTER ENERGY ULTRA RED IT </t>
   </si>
   <si>
-    <t xml:space="preserve">500ml PET LILIA IT    </t>
-  </si>
-  <si>
     <t xml:space="preserve">2.0L PET LILIA IT    </t>
   </si>
   <si>
@@ -270,9 +267,6 @@
     <t xml:space="preserve">330ml CAN FANTA LEMON IT   </t>
   </si>
   <si>
-    <t xml:space="preserve">330ml CAN SLEEK COCA COLA ZERO IT </t>
-  </si>
-  <si>
     <t xml:space="preserve">330ml NRG COCA COLA ZERO IT  </t>
   </si>
   <si>
@@ -450,29 +444,59 @@
     <t>Score multiplier</t>
   </si>
   <si>
-    <t xml:space="preserve">1.0L PET LILIA NAT IT    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0L PET LILIA FRIZZ IT    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0L PET LILIA NAT IT   HORECA </t>
-  </si>
-  <si>
-    <t>1.0L PET LILIA FRIZZ IT    HORECA</t>
+    <t xml:space="preserve">1.0L PET LILIA FRIZZANTE IT    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0L PET LILIA NATURALE IT HORECA </t>
+  </si>
+  <si>
+    <t>1.0L PET LILIA FRIZZANTE IT HORECA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500ml PET LILIA FRIZZANTE IT    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">500ml PET LILIA NATURALE IT    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">450ml PET FANTA LEMON IT   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">450ml PET FANTA PASSION IT   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">450ml PET COCA-COLA ZERO LEMON  IT    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">450ml PET COCA-COLA STEVIA  IT    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">450ml PET COCA-COLA LIGHT  IT    </t>
+  </si>
+  <si>
+    <t>330ml CAN SLEEK COCA COLA ZERO IT SUMMER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0L PET LILIA IT    </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -495,7 +519,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -503,11 +527,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -517,6 +556,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -832,19 +883,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N108"/>
+  <dimension ref="A1:N113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B92" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
-      <selection pane="bottomRight" activeCell="A118" sqref="A118"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="54.25"/>
-    <col min="2" max="2" width="12.375"/>
+    <col min="2" max="2" width="12.375" style="8"/>
     <col min="3" max="3" width="7.875" customWidth="1"/>
     <col min="4" max="4" width="10.75" customWidth="1"/>
     <col min="5" max="13" width="7.875" customWidth="1"/>
@@ -856,7 +907,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -2349,52 +2400,52 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="2">
+      <c r="A35" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B35" s="7">
         <v>1003501</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="3">
         <v>3</v>
       </c>
-      <c r="D35" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35">
+      <c r="D35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="3">
         <v>6</v>
       </c>
-      <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35">
+      <c r="F35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="3">
         <v>3</v>
       </c>
-      <c r="H35" t="s">
-        <v>17</v>
-      </c>
-      <c r="I35">
+      <c r="H35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="3">
         <v>3</v>
       </c>
-      <c r="J35" t="s">
-        <v>17</v>
-      </c>
-      <c r="K35">
+      <c r="J35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="3">
         <v>6</v>
       </c>
-      <c r="L35" t="s">
-        <v>17</v>
-      </c>
-      <c r="M35">
+      <c r="L35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M35" s="3">
         <v>3</v>
       </c>
-      <c r="N35" t="s">
+      <c r="N35" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B36" s="2">
         <v>1001301</v>
@@ -2438,7 +2489,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37" s="2">
         <v>1028801</v>
@@ -2482,51 +2533,51 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B38" s="2">
+        <v>148</v>
+      </c>
+      <c r="B38" s="7">
         <v>1027701</v>
       </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38" t="s">
-        <v>15</v>
-      </c>
-      <c r="K38">
+      <c r="C38" s="3">
+        <v>0</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K38" s="3">
         <v>12</v>
       </c>
-      <c r="L38" t="s">
-        <v>19</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38" t="s">
+      <c r="L38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M38" s="3">
+        <v>0</v>
+      </c>
+      <c r="N38" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B39" s="2">
         <v>270901</v>
@@ -2570,7 +2621,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B40" s="2">
         <v>1374901</v>
@@ -2614,7 +2665,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B41" s="2">
         <v>1339401</v>
@@ -2658,7 +2709,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B42" s="2">
         <v>1600701</v>
@@ -2702,7 +2753,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43" s="2">
         <v>74804</v>
@@ -2746,7 +2797,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B44" s="2">
         <v>1355101</v>
@@ -2790,7 +2841,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B45" s="2">
         <v>1749101</v>
@@ -2834,7 +2885,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B46" s="2">
         <v>1749001</v>
@@ -2878,7 +2929,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B47" s="2">
         <v>1783101</v>
@@ -2922,7 +2973,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B48" s="2">
         <v>1747903</v>
@@ -2966,7 +3017,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B49" s="2">
         <v>1748901</v>
@@ -3010,7 +3061,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B50" s="2">
         <v>1745101</v>
@@ -3054,7 +3105,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B51" s="2">
         <v>1745301</v>
@@ -3098,7 +3149,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B52" s="2">
         <v>1536801</v>
@@ -3142,7 +3193,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B53" s="2">
         <v>1600801</v>
@@ -3186,7 +3237,7 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B54" s="2">
         <v>1027101</v>
@@ -3230,7 +3281,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B55" s="2">
         <v>25405</v>
@@ -3274,7 +3325,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B56" s="2">
         <v>1546901</v>
@@ -3318,7 +3369,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B57" s="2">
         <v>620413</v>
@@ -3362,7 +3413,7 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B58" s="2">
         <v>592421</v>
@@ -3406,7 +3457,7 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B59" s="2">
         <v>1417705</v>
@@ -3450,7 +3501,7 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B60" s="2">
         <v>280604</v>
@@ -3494,7 +3545,7 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B61" s="2">
         <v>956510</v>
@@ -3538,7 +3589,7 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B62" s="2">
         <v>17204</v>
@@ -3582,7 +3633,7 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B63" s="2">
         <v>1544102</v>
@@ -3626,7 +3677,7 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B64" s="2">
         <v>478708</v>
@@ -3668,9 +3719,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>79</v>
+    <row r="65" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>147</v>
       </c>
       <c r="B65" s="2">
         <v>225004</v>
@@ -3714,7 +3765,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B66" s="2">
         <v>1700201</v>
@@ -3758,7 +3809,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B67" s="2">
         <v>1589201</v>
@@ -3802,7 +3853,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B68" s="2">
         <v>298129</v>
@@ -3846,7 +3897,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B69" s="2">
         <v>1622601</v>
@@ -3890,7 +3941,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B70" s="2">
         <v>511903</v>
@@ -3934,7 +3985,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B71" s="2">
         <v>1781701</v>
@@ -3978,7 +4029,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B72" s="2">
         <v>611806</v>
@@ -4022,7 +4073,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B73" s="2">
         <v>1757801</v>
@@ -4066,7 +4117,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B74" s="2">
         <v>1755201</v>
@@ -4110,7 +4161,7 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B75" s="2">
         <v>1759701</v>
@@ -4154,7 +4205,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B76" s="2">
         <v>1537003</v>
@@ -4198,7 +4249,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B77" s="2">
         <v>14719</v>
@@ -4242,7 +4293,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B78" s="2">
         <v>592334</v>
@@ -4286,7 +4337,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B79" s="2">
         <v>1016003</v>
@@ -4330,7 +4381,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B80" s="2">
         <v>1001001</v>
@@ -4374,7 +4425,7 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B81" s="2">
         <v>175749</v>
@@ -4418,7 +4469,7 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B82" s="2">
         <v>1031002</v>
@@ -4462,7 +4513,7 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B83" s="2">
         <v>25209</v>
@@ -4506,7 +4557,7 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B84" s="2">
         <v>1084001</v>
@@ -4550,7 +4601,7 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B85" s="2">
         <v>1755501</v>
@@ -4594,7 +4645,7 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B86" s="2">
         <v>409006</v>
@@ -4638,7 +4689,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B87" s="2">
         <v>14605</v>
@@ -4682,7 +4733,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B88" s="2">
         <v>230301</v>
@@ -4726,7 +4777,7 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B89" s="2">
         <v>1752501</v>
@@ -4770,7 +4821,7 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B90" s="2">
         <v>87576</v>
@@ -4814,7 +4865,7 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B91" s="2">
         <v>1360004</v>
@@ -4858,7 +4909,7 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B92" s="2">
         <v>1612704</v>
@@ -4902,7 +4953,7 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B93" s="2">
         <v>1085801</v>
@@ -4946,7 +4997,7 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B94" s="2">
         <v>1027001</v>
@@ -4990,7 +5041,7 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B95" s="2">
         <v>1085901</v>
@@ -5034,7 +5085,7 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B96" s="2">
         <v>1098101</v>
@@ -5078,7 +5129,7 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B97" s="2">
         <v>1085401</v>
@@ -5122,7 +5173,7 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B98" s="2">
         <v>1085101</v>
@@ -5166,7 +5217,7 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B99" s="2">
         <v>1085701</v>
@@ -5210,7 +5261,7 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B100" s="2">
         <v>1085001</v>
@@ -5254,7 +5305,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B101" s="2">
         <v>1085501</v>
@@ -5298,7 +5349,7 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B102" s="2">
         <v>1085301</v>
@@ -5342,7 +5393,7 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B103" s="2">
         <v>1111902</v>
@@ -5386,7 +5437,7 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B104" s="2">
         <v>1396201</v>
@@ -5430,7 +5481,7 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B105" s="5">
         <v>1027901</v>
@@ -5474,51 +5525,51 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="B106" s="5">
         <v>1098402</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="3">
         <v>3</v>
       </c>
-      <c r="D106" t="s">
-        <v>17</v>
-      </c>
-      <c r="E106">
+      <c r="D106" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E106" s="3">
         <v>6</v>
       </c>
-      <c r="F106" t="s">
-        <v>17</v>
-      </c>
-      <c r="G106">
+      <c r="F106" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G106" s="3">
         <v>3</v>
       </c>
-      <c r="H106" t="s">
-        <v>17</v>
-      </c>
-      <c r="I106">
+      <c r="H106" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I106" s="3">
         <v>3</v>
       </c>
-      <c r="J106" t="s">
-        <v>17</v>
-      </c>
-      <c r="K106">
+      <c r="J106" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K106" s="3">
         <v>6</v>
       </c>
-      <c r="L106" t="s">
-        <v>17</v>
-      </c>
-      <c r="M106">
+      <c r="L106" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M106" s="3">
         <v>3</v>
       </c>
-      <c r="N106" t="s">
+      <c r="N106" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B107" s="5">
         <v>1027702</v>
@@ -5562,7 +5613,7 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B108" s="5">
         <v>1097902</v>
@@ -5604,8 +5655,228 @@
         <v>15</v>
       </c>
     </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B109" s="5">
+        <v>1755801</v>
+      </c>
+      <c r="C109" s="3">
+        <v>5</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E109" s="3">
+        <v>0</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G109" s="3">
+        <v>5</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I109" s="3">
+        <v>5</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K109" s="3">
+        <v>0</v>
+      </c>
+      <c r="L109" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M109" s="3">
+        <v>5</v>
+      </c>
+      <c r="N109" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B110" s="5">
+        <v>1758101</v>
+      </c>
+      <c r="C110" s="3">
+        <v>5</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E110" s="3">
+        <v>0</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G110" s="3">
+        <v>5</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I110" s="3">
+        <v>5</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K110" s="3">
+        <v>0</v>
+      </c>
+      <c r="L110" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M110" s="3">
+        <v>5</v>
+      </c>
+      <c r="N110" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A111" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B111" s="5">
+        <v>1756201</v>
+      </c>
+      <c r="C111" s="3">
+        <v>5</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E111" s="3">
+        <v>0</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G111" s="3">
+        <v>5</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I111" s="3">
+        <v>5</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K111" s="3">
+        <v>0</v>
+      </c>
+      <c r="L111" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M111" s="3">
+        <v>5</v>
+      </c>
+      <c r="N111" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A112" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B112" s="5">
+        <v>1788701</v>
+      </c>
+      <c r="C112" s="3">
+        <v>5</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E112" s="3">
+        <v>0</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G112" s="3">
+        <v>5</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I112" s="3">
+        <v>5</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K112" s="3">
+        <v>0</v>
+      </c>
+      <c r="L112" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M112" s="3">
+        <v>5</v>
+      </c>
+      <c r="N112" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A113" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B113" s="5">
+        <v>1755901</v>
+      </c>
+      <c r="C113" s="3">
+        <v>5</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E113" s="3">
+        <v>0</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G113" s="3">
+        <v>5</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I113" s="3">
+        <v>5</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K113" s="3">
+        <v>0</v>
+      </c>
+      <c r="L113" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M113" s="3">
+        <v>5</v>
+      </c>
+      <c r="N113" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N104" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:N113" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
@@ -5633,30 +5904,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
         <v>119</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>120</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>121</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>122</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>123</v>
-      </c>
-      <c r="F1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -5679,7 +5950,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -5702,7 +5973,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B4" s="1">
         <v>12</v>
@@ -5725,7 +5996,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B5">
         <v>18</v>
@@ -5748,7 +6019,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B6">
         <v>12</v>
@@ -5771,7 +6042,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B7" s="1">
         <v>18</v>
@@ -5813,10 +6084,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -5853,15 +6124,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -5869,7 +6140,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5877,7 +6148,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B4">
         <v>1.5</v>
